--- a/hardware/wakeuplight rev2/Changelog from Rev 1.xlsx
+++ b/hardware/wakeuplight rev2/Changelog from Rev 1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,48 @@
   </si>
   <si>
     <t>Fixes LED always ON issue, and allows the circuit to work properly</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Schematics</t>
+  </si>
+  <si>
+    <t>reduces footprint size</t>
+  </si>
+  <si>
+    <t>Added 10k resistor in parallel to C1 for resistor divider on contrast pin</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Allow constract pin PWM to actually function correctly</t>
+  </si>
+  <si>
+    <t>Updated caps to use 2.2uF instead of 1000uF, package: 0603</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Increased through-hole pin sizes on rotary encoder</t>
+  </si>
+  <si>
+    <t>Pins actually fit into through-holes on rotary encoder now</t>
+  </si>
+  <si>
+    <t>Moved RTC a bit closer to the edge</t>
+  </si>
+  <si>
+    <t>Easier for soldering</t>
+  </si>
+  <si>
+    <t>Addded testpoints</t>
+  </si>
+  <si>
+    <t>for debugging</t>
   </si>
 </sst>
 </file>
@@ -413,14 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
@@ -449,16 +493,19 @@
         <v>42469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42469</v>
       </c>
@@ -466,24 +513,115 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42469</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>42476</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>42476</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>42476</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>42477</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>42477</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
